--- a/output/LOWVOL/rebalance/rebalance_20250331.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20250331.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>64.71%</t>
+          <t>28.43%</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02359949750090341</v>
+        <v>0.03035643799677254</v>
       </c>
       <c r="C2" t="n">
         <v>0.03320557020722775</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009606072706324333</v>
+        <v>0.002849132210455206</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,17 +6303,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01936806830525424</v>
+        <v>0.03097503378964625</v>
       </c>
       <c r="C3" t="n">
         <v>0.02959050094088012</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01022243263562588</v>
+        <v>-0.001384532848766128</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02185191303546347</v>
+        <v>0.0295563612761074</v>
       </c>
       <c r="C4" t="n">
         <v>0.02958333750916771</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007731424473704243</v>
+        <v>2.697623306030517e-05</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,17 +6345,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.01933801792841158</v>
       </c>
       <c r="C5" t="n">
         <v>0.02815488862356921</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02815488862356921</v>
+        <v>0.008816870695157634</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6366,17 +6366,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.02174470928845877</v>
       </c>
       <c r="C6" t="n">
         <v>0.02738209458325078</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02738209458325078</v>
+        <v>0.005637385294792005</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02268875293583531</v>
+        <v>0.02464008663774666</v>
       </c>
       <c r="C7" t="n">
         <v>0.02512868051005237</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002439927574217061</v>
+        <v>0.0004885938723057058</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,17 +6408,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.02153273253916475</v>
       </c>
       <c r="C8" t="n">
         <v>0.02490005840870188</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02490005840870188</v>
+        <v>0.003367325869537127</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01924822117391227</v>
+        <v>0.02460521211723963</v>
       </c>
       <c r="C9" t="n">
         <v>0.02469174504730627</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005443523873393998</v>
+        <v>8.653293006663856e-05</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,17 +6450,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.01956346786857183</v>
       </c>
       <c r="C10" t="n">
         <v>0.02393971980063107</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02393971980063107</v>
+        <v>0.004376251932059243</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6471,17 +6471,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.02442697554247039</v>
       </c>
       <c r="C11" t="n">
         <v>0.0233775417886904</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0233775417886904</v>
+        <v>-0.001049433753779992</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6492,17 +6492,17 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.02055910036177288</v>
       </c>
       <c r="C12" t="n">
         <v>0.02265337898559051</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02265337898559051</v>
+        <v>0.002094278623817631</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6513,17 +6513,17 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02014587142448156</v>
+        <v>0.02560658851411079</v>
       </c>
       <c r="C13" t="n">
         <v>0.02187536147166301</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001729490047181453</v>
+        <v>-0.003731227042447778</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6534,17 +6534,17 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.02051917457564651</v>
       </c>
       <c r="C14" t="n">
         <v>0.02180925345889579</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02180925345889579</v>
+        <v>0.001290078883249279</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01488097108852556</v>
+        <v>0.02093839656632598</v>
       </c>
       <c r="C15" t="n">
         <v>0.0210257276861054</v>
       </c>
       <c r="D15" t="n">
-        <v>0.006144756597579832</v>
+        <v>8.733111977941854e-05</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,17 +6576,17 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.01662329512882078</v>
       </c>
       <c r="C16" t="n">
         <v>0.01957228223206879</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01957228223206879</v>
+        <v>0.002948987103248011</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6597,17 +6597,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.02032535342916469</v>
       </c>
       <c r="C17" t="n">
         <v>0.01953680976406106</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01953680976406106</v>
+        <v>-0.0007885436651036346</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02136317764889186</v>
+        <v>0.02072923864493099</v>
       </c>
       <c r="C18" t="n">
         <v>0.0192913635164952</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.002071814132396658</v>
+        <v>-0.001437875128435788</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,17 +6639,17 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01553269138372315</v>
+        <v>0.02121653638478545</v>
       </c>
       <c r="C19" t="n">
         <v>0.01915413824109526</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003621446857372104</v>
+        <v>-0.002062398143690192</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6660,17 +6660,17 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01801942710032211</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0.01915325397383548</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001133826873513374</v>
+        <v>0.01915325397383548</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>新增</t>
         </is>
       </c>
     </row>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0251140583106199</v>
+        <v>0.02052504356419874</v>
       </c>
       <c r="C22" t="n">
         <v>0.01878042617289581</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.006333632137724095</v>
+        <v>-0.001744617391302928</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02316833051578994</v>
+        <v>0.02004721221289805</v>
       </c>
       <c r="C23" t="n">
         <v>0.01862588378322543</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.004542446732564504</v>
+        <v>-0.00142132842967262</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02316950280523254</v>
+        <v>0.01849074468369254</v>
       </c>
       <c r="C25" t="n">
         <v>0.01840310252844428</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.004766400276788263</v>
+        <v>-8.764215524826105e-05</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,17 +6786,17 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01534798548204407</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0.01839794019682594</v>
       </c>
       <c r="D26" t="n">
-        <v>0.003049954714781871</v>
+        <v>0.01839794019682594</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>新增</t>
         </is>
       </c>
     </row>
@@ -6807,17 +6807,17 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.020948137487365</v>
       </c>
       <c r="C27" t="n">
         <v>0.01836753441836936</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01836753441836936</v>
+        <v>-0.00258060306899564</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6849,17 +6849,17 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.01732627987049992</v>
       </c>
       <c r="C29" t="n">
         <v>0.01833525898205588</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01833525898205588</v>
+        <v>0.001008979111555963</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02398804199191131</v>
+        <v>0.02025507731961645</v>
       </c>
       <c r="C31" t="n">
         <v>0.01816715560429483</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.005820886387616478</v>
+        <v>-0.002087921715321624</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6912,17 +6912,17 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01762695354056697</v>
+        <v>0.02123759346945005</v>
       </c>
       <c r="C32" t="n">
         <v>0.01811088521478297</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0004839316742159955</v>
+        <v>-0.003126708254667081</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01954397694131128</v>
+        <v>0.02431603779524199</v>
       </c>
       <c r="C33" t="n">
         <v>0.01802093844126488</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.001523038500046398</v>
+        <v>-0.006295099353977113</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6954,17 +6954,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.01774313517341475</v>
       </c>
       <c r="C34" t="n">
         <v>0.01795819610565135</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01795819610565135</v>
+        <v>0.0002150609322366034</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6975,17 +6975,17 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.01806839578928253</v>
       </c>
       <c r="C35" t="n">
         <v>0.01793057395902963</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01793057395902963</v>
+        <v>-0.0001378218302528975</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6996,17 +6996,17 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.01338385609394679</v>
       </c>
       <c r="C36" t="n">
         <v>0.01780640667876218</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01780640667876218</v>
+        <v>0.004422550584815397</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -7038,17 +7038,17 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.01785485878866393</v>
       </c>
       <c r="C38" t="n">
         <v>0.01765210819241863</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01765210819241863</v>
+        <v>-0.0002027505962453012</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7101,17 +7101,17 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.01795071038729249</v>
       </c>
       <c r="C41" t="n">
         <v>0.01732081877799035</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01732081877799035</v>
+        <v>-0.0006298916093021405</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01827192220191703</v>
+        <v>0.01791742338776335</v>
       </c>
       <c r="C42" t="n">
         <v>0.01711433528794739</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.001157586913969635</v>
+        <v>-0.000803088099815958</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7143,17 +7143,17 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.01774543956248687</v>
       </c>
       <c r="C43" t="n">
         <v>0.01709589953958265</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01709589953958265</v>
+        <v>-0.0006495400229042242</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7206,17 +7206,17 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.01715562905445861</v>
       </c>
       <c r="C46" t="n">
         <v>0.0166666580813108</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0166666580813108</v>
+        <v>-0.0004889709731478106</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0226270414613166</v>
+        <v>0.02698736432114108</v>
       </c>
       <c r="C48" t="n">
         <v>0.01617373651785855</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.006453304943458048</v>
+        <v>-0.01081362780328253</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7290,17 +7290,17 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>0.01602188264046207</v>
       </c>
       <c r="C50" t="n">
         <v>0.01603473961222432</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01603473961222432</v>
+        <v>1.285697176225259e-05</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -7328,17 +7328,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2809</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.031118848859927</v>
+        <v>0.01466429889854832</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.031118848859927</v>
+        <v>-0.01466429889854832</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7349,17 +7349,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6182</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.009717019573086962</v>
+        <v>0.01921257583338697</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.009717019573086962</v>
+        <v>-0.01921257583338697</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7370,17 +7370,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>6505</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01845310632319719</v>
+        <v>0.01823488566207392</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01845310632319719</v>
+        <v>-0.01823488566207392</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7391,17 +7391,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01152763945007213</v>
+        <v>0.02723526909506446</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01152763945007213</v>
+        <v>-0.02723526909506446</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7412,17 +7412,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>2395</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01448506878509029</v>
+        <v>0.01842358189345256</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01448506878509029</v>
+        <v>-0.01842358189345256</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7433,17 +7433,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>2347</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02268138436144634</v>
+        <v>0.01620361852253425</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.02268138436144634</v>
+        <v>-0.01620361852253425</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7454,17 +7454,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6505</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01132378708448254</v>
+        <v>0.01347960041179867</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01132378708448254</v>
+        <v>-0.01347960041179867</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7475,17 +7475,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>1326</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01232421484297069</v>
+        <v>0.01563413507645258</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01232421484297069</v>
+        <v>-0.01563413507645258</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7496,17 +7496,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1314</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02543249993875151</v>
+        <v>0.01724892230252769</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02543249993875151</v>
+        <v>-0.01724892230252769</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7517,17 +7517,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01081931180941282</v>
+        <v>0.01602296057971577</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01081931180941282</v>
+        <v>-0.01602296057971577</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7538,17 +7538,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>9904</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02006684655254224</v>
+        <v>0.01774832918156009</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02006684655254224</v>
+        <v>-0.01774832918156009</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01166549870016718</v>
+        <v>0.01671270683483074</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01166549870016718</v>
+        <v>-0.01671270683483074</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7580,17 +7580,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2888</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01367436108885571</v>
+        <v>0.01612454710216845</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01367436108885571</v>
+        <v>-0.01612454710216845</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7601,376 +7601,19 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>9939</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01723949369671649</v>
+        <v>0.01582302841386243</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01723949369671649</v>
+        <v>-0.01582302841386243</v>
       </c>
       <c r="E65" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>3714</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.0159252814518736</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-0.0159252814518736</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>1723</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.01439011155410002</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-0.01439011155410002</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>1904</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.01226086843435409</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.01226086843435409</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.01854900768647748</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.01854900768647748</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2101</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.01909293749875896</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.01909293749875896</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2888</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.04090076425732326</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-0.04090076425732326</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2227</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.006624284708493219</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-0.006624284708493219</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2258</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.01892510024314158</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-0.01892510024314158</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2308</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.0226884772803634</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>-0.0226884772803634</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2883</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.02824314379393091</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-0.02824314379393091</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2882</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.02724166204690036</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-0.02724166204690036</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2317</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0.02890427133091205</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-0.02890427133091205</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2867</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.04218153554805275</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>-0.04218153554805275</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2330</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.03356613229170578</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>-0.03356613229170578</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2337</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.01301356623488274</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-0.01301356623488274</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2354</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.02312233938853553</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>-0.02312233938853553</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>9945</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.01828503033545258</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-0.01828503033545258</v>
-      </c>
-      <c r="E82" t="inlineStr">
         <is>
           <t>刪除</t>
         </is>

--- a/output/LOWVOL/rebalance/rebalance_20250331.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20250331.xlsx
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03035643799677254</v>
+        <v>0.03035621996242733</v>
       </c>
       <c r="C2" t="n">
         <v>0.03320557020722775</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002849132210455206</v>
+        <v>0.00284935024480042</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03097503378964625</v>
+        <v>0.03097506576238587</v>
       </c>
       <c r="C3" t="n">
         <v>0.02959050094088012</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.001384532848766128</v>
+        <v>-0.001384564821505754</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0295563612761074</v>
+        <v>0.02955621473604042</v>
       </c>
       <c r="C4" t="n">
         <v>0.02958333750916771</v>
       </c>
       <c r="D4" t="n">
-        <v>2.697623306030517e-05</v>
+        <v>2.71227731272923e-05</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01933801792841158</v>
+        <v>0.01933803629539158</v>
       </c>
       <c r="C5" t="n">
         <v>0.02815488862356921</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008816870695157634</v>
+        <v>0.008816852328177634</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02174470928845877</v>
+        <v>0.02174457430640056</v>
       </c>
       <c r="C6" t="n">
         <v>0.02738209458325078</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005637385294792005</v>
+        <v>0.005637520276850213</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02464008663774666</v>
+        <v>0.02463999155852736</v>
       </c>
       <c r="C7" t="n">
         <v>0.02512868051005237</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0004885938723057058</v>
+        <v>0.0004886889515250091</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02153273253916475</v>
+        <v>0.02153280644265754</v>
       </c>
       <c r="C8" t="n">
         <v>0.02490005840870188</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003367325869537127</v>
+        <v>0.003367251966044333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02460521211723963</v>
+        <v>0.02460538581020045</v>
       </c>
       <c r="C9" t="n">
         <v>0.02469174504730627</v>
       </c>
       <c r="D9" t="n">
-        <v>8.653293006663856e-05</v>
+        <v>8.635923710582222e-05</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01956346786857183</v>
+        <v>0.01956330712050426</v>
       </c>
       <c r="C10" t="n">
         <v>0.02393971980063107</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004376251932059243</v>
+        <v>0.004376412680126809</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02442697554247039</v>
+        <v>0.0244269437208715</v>
       </c>
       <c r="C11" t="n">
         <v>0.0233775417886904</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001049433753779992</v>
+        <v>-0.001049401932181098</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02055910036177288</v>
+        <v>0.02055927452009556</v>
       </c>
       <c r="C12" t="n">
         <v>0.02265337898559051</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002094278623817631</v>
+        <v>0.002094104465494954</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02560658851411079</v>
+        <v>0.02560650170217045</v>
       </c>
       <c r="C13" t="n">
         <v>0.02187536147166301</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003731227042447778</v>
+        <v>-0.003731140230507437</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02051917457564651</v>
+        <v>0.02051903182302742</v>
       </c>
       <c r="C14" t="n">
         <v>0.02180925345889579</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001290078883249279</v>
+        <v>0.001290221635868366</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02093839656632598</v>
+        <v>0.02093835270331751</v>
       </c>
       <c r="C15" t="n">
         <v>0.0210257276861054</v>
       </c>
       <c r="D15" t="n">
-        <v>8.733111977941854e-05</v>
+        <v>8.737498278788697e-05</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01662329512882078</v>
+        <v>0.01662330707402034</v>
       </c>
       <c r="C16" t="n">
         <v>0.01957228223206879</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002948987103248011</v>
+        <v>0.002948975158048449</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02032535342916469</v>
+        <v>0.02032535836650514</v>
       </c>
       <c r="C17" t="n">
         <v>0.01953680976406106</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0007885436651036346</v>
+        <v>-0.0007885486024440808</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02072923864493099</v>
+        <v>0.02072881110447996</v>
       </c>
       <c r="C18" t="n">
         <v>0.0192913635164952</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.001437875128435788</v>
+        <v>-0.00143744758798476</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02121653638478545</v>
+        <v>0.02121665757272591</v>
       </c>
       <c r="C19" t="n">
         <v>0.01915413824109526</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002062398143690192</v>
+        <v>-0.002062519331630652</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02052504356419874</v>
+        <v>0.02052494715806639</v>
       </c>
       <c r="C22" t="n">
         <v>0.01878042617289581</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.001744617391302928</v>
+        <v>-0.00174452098517058</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02004721221289805</v>
+        <v>0.02004701132241784</v>
       </c>
       <c r="C23" t="n">
         <v>0.01862588378322543</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.00142132842967262</v>
+        <v>-0.001421127539192411</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01849074468369254</v>
+        <v>0.01849071822091627</v>
       </c>
       <c r="C25" t="n">
         <v>0.01840310252844428</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.764215524826105e-05</v>
+        <v>-8.761569247199563e-05</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.020948137487365</v>
+        <v>0.02094779191044699</v>
       </c>
       <c r="C27" t="n">
         <v>0.01836753441836936</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.00258060306899564</v>
+        <v>-0.002580257492077621</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01732627987049992</v>
+        <v>0.01732616445943615</v>
       </c>
       <c r="C29" t="n">
         <v>0.01833525898205588</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001008979111555963</v>
+        <v>0.001009094522619731</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02025507731961645</v>
+        <v>0.0202556455094002</v>
       </c>
       <c r="C31" t="n">
         <v>0.01816715560429483</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.002087921715321624</v>
+        <v>-0.002088489905105372</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02123759346945005</v>
+        <v>0.02123749840038712</v>
       </c>
       <c r="C32" t="n">
         <v>0.01811088521478297</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.003126708254667081</v>
+        <v>-0.003126613185604154</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02431603779524199</v>
+        <v>0.02431600874699222</v>
       </c>
       <c r="C33" t="n">
         <v>0.01802093844126488</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.006295099353977113</v>
+        <v>-0.006295070305727339</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01774313517341475</v>
+        <v>0.01774311031836522</v>
       </c>
       <c r="C34" t="n">
         <v>0.01795819610565135</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0002150609322366034</v>
+        <v>0.0002150857872861359</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01806839578928253</v>
+        <v>0.01806851302892963</v>
       </c>
       <c r="C35" t="n">
         <v>0.01793057395902963</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.0001378218302528975</v>
+        <v>-0.0001379390698999956</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01338385609394679</v>
+        <v>0.01338408501967013</v>
       </c>
       <c r="C36" t="n">
         <v>0.01780640667876218</v>
       </c>
       <c r="D36" t="n">
-        <v>0.004422550584815397</v>
+        <v>0.004422321659092048</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01785485878866393</v>
+        <v>0.01785492006915519</v>
       </c>
       <c r="C38" t="n">
         <v>0.01765210819241863</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0002027505962453012</v>
+        <v>-0.000202811876736559</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01795071038729249</v>
+        <v>0.01795063265979489</v>
       </c>
       <c r="C41" t="n">
         <v>0.01732081877799035</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0006298916093021405</v>
+        <v>-0.0006298138818045355</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01791742338776335</v>
+        <v>0.01791753801738944</v>
       </c>
       <c r="C42" t="n">
         <v>0.01711433528794739</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.000803088099815958</v>
+        <v>-0.0008032027294420443</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01774543956248687</v>
+        <v>0.01774658573341423</v>
       </c>
       <c r="C43" t="n">
         <v>0.01709589953958265</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0006495400229042242</v>
+        <v>-0.0006506861938315837</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7206,13 +7206,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01715562905445861</v>
+        <v>0.01715677824665207</v>
       </c>
       <c r="C46" t="n">
         <v>0.0166666580813108</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.0004889709731478106</v>
+        <v>-0.0004901201653412755</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02698736432114108</v>
+        <v>0.02698693374871794</v>
       </c>
       <c r="C48" t="n">
         <v>0.01617373651785855</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.01081362780328253</v>
+        <v>-0.01081319723085939</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7290,13 +7290,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01602188264046207</v>
+        <v>0.01602193762991063</v>
       </c>
       <c r="C50" t="n">
         <v>0.01603473961222432</v>
       </c>
       <c r="D50" t="n">
-        <v>1.285697176225259e-05</v>
+        <v>1.280198231369198e-05</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01466429889854832</v>
+        <v>0.0146642418791158</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01466429889854832</v>
+        <v>-0.0146642418791158</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01921257583338697</v>
+        <v>0.01921253155534196</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01921257583338697</v>
+        <v>-0.01921253155534196</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01823488566207392</v>
+        <v>0.01823479603399672</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01823488566207392</v>
+        <v>-0.01823479603399672</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02723526909506446</v>
+        <v>0.02723453910710454</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02723526909506446</v>
+        <v>-0.02723453910710454</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01842358189345256</v>
+        <v>0.01842343699220252</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01842358189345256</v>
+        <v>-0.01842343699220252</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01620361852253425</v>
+        <v>0.01620362087624085</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01620361852253425</v>
+        <v>-0.01620362087624085</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01347960041179867</v>
+        <v>0.01347964065195379</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01347960041179867</v>
+        <v>-0.01347964065195379</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01563413507645258</v>
+        <v>0.0156338853636338</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01563413507645258</v>
+        <v>-0.0156338853636338</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01724892230252769</v>
+        <v>0.01724958920717777</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01724892230252769</v>
+        <v>-0.01724958920717777</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01602296057971577</v>
+        <v>0.01602282659317979</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01602296057971577</v>
+        <v>-0.01602282659317979</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01774832918156009</v>
+        <v>0.01774795622975014</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01774832918156009</v>
+        <v>-0.01774795622975014</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01671270683483074</v>
+        <v>0.01671260306167323</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01671270683483074</v>
+        <v>-0.01671260306167323</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01612454710216845</v>
+        <v>0.01612454156745502</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01612454710216845</v>
+        <v>-0.01612454156745502</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01582302841386243</v>
+        <v>0.01582313009936242</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01582302841386243</v>
+        <v>-0.01582313009936242</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>

--- a/output/LOWVOL/rebalance/rebalance_20250331.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20250331.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>28.43%</t>
+          <t>28.44%</t>
         </is>
       </c>
     </row>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03035621996242733</v>
+        <v>0.03041328495563186</v>
       </c>
       <c r="C2" t="n">
         <v>0.03320557020722775</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00284935024480042</v>
+        <v>0.002792285251595882</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03097506576238587</v>
+        <v>0.03103303916141265</v>
       </c>
       <c r="C3" t="n">
         <v>0.02959050094088012</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.001384564821505754</v>
+        <v>-0.001442538220532526</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,17 +6324,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02955621473604042</v>
+        <v>0.02961170997194823</v>
       </c>
       <c r="C4" t="n">
         <v>0.02958333750916771</v>
       </c>
       <c r="D4" t="n">
-        <v>2.71227731272923e-05</v>
+        <v>-2.837246278052444e-05</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01933803629539158</v>
+        <v>0.01937423125191528</v>
       </c>
       <c r="C5" t="n">
         <v>0.02815488862356921</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008816852328177634</v>
+        <v>0.008780657371653931</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02174457430640056</v>
+        <v>0.02178542950057524</v>
       </c>
       <c r="C6" t="n">
         <v>0.02738209458325078</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005637520276850213</v>
+        <v>0.005596665082675534</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02463999155852736</v>
+        <v>0.02468622887589514</v>
       </c>
       <c r="C7" t="n">
         <v>0.02512868051005237</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0004886889515250091</v>
+        <v>0.0004424516341572336</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02153280644265754</v>
+        <v>0.02157305579319452</v>
       </c>
       <c r="C8" t="n">
         <v>0.02490005840870188</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003367251966044333</v>
+        <v>0.003327002615507356</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02460538581020045</v>
+        <v>0.02465128904764571</v>
       </c>
       <c r="C9" t="n">
         <v>0.02469174504730627</v>
       </c>
       <c r="D9" t="n">
-        <v>8.635923710582222e-05</v>
+        <v>4.04559996605644e-05</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01956330712050426</v>
+        <v>0.01960010338072212</v>
       </c>
       <c r="C10" t="n">
         <v>0.02393971980063107</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004376412680126809</v>
+        <v>0.004339616419908949</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0244269437208715</v>
+        <v>0.02447271869830008</v>
       </c>
       <c r="C11" t="n">
         <v>0.0233775417886904</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001049401932181098</v>
+        <v>-0.001095176909609683</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02055927452009556</v>
+        <v>0.02059760034429964</v>
       </c>
       <c r="C12" t="n">
         <v>0.02265337898559051</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002094104465494954</v>
+        <v>0.002055778641290869</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02560650170217045</v>
+        <v>0.02565454067120986</v>
       </c>
       <c r="C13" t="n">
         <v>0.02187536147166301</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003731140230507437</v>
+        <v>-0.003779179199546845</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02051903182302742</v>
+        <v>0.02055759979118244</v>
       </c>
       <c r="C14" t="n">
         <v>0.02180925345889579</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001290221635868366</v>
+        <v>0.001251653667713348</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02093835270331751</v>
+        <v>0.02097760683758088</v>
       </c>
       <c r="C15" t="n">
         <v>0.0210257276861054</v>
       </c>
       <c r="D15" t="n">
-        <v>8.737498278788697e-05</v>
+        <v>4.812084852451326e-05</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01662330707402034</v>
+        <v>0.01665442472888765</v>
       </c>
       <c r="C16" t="n">
         <v>0.01957228223206879</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002948975158048449</v>
+        <v>0.002917857503181135</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02032535836650514</v>
+        <v>0.02036341568568872</v>
       </c>
       <c r="C17" t="n">
         <v>0.01953680976406106</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0007885486024440808</v>
+        <v>-0.0008266059216276642</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02072881110447996</v>
+        <v>0.02076805723677496</v>
       </c>
       <c r="C18" t="n">
         <v>0.0192913635164952</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.00143744758798476</v>
+        <v>-0.001476693720279757</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02121665757272591</v>
+        <v>0.02125626751434458</v>
       </c>
       <c r="C19" t="n">
         <v>0.01915413824109526</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002062519331630652</v>
+        <v>-0.00210212927324932</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02052494715806639</v>
+        <v>0.02056347977029129</v>
       </c>
       <c r="C22" t="n">
         <v>0.01878042617289581</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.00174452098517058</v>
+        <v>-0.001783053597395483</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02004701132241784</v>
+        <v>0.02008475360850027</v>
       </c>
       <c r="C23" t="n">
         <v>0.01862588378322543</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.001421127539192411</v>
+        <v>-0.001458869825274836</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01849071822091627</v>
+        <v>0.01852537136164547</v>
       </c>
       <c r="C25" t="n">
         <v>0.01840310252844428</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.761569247199563e-05</v>
+        <v>-0.0001222688332011938</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02094779191044699</v>
+        <v>0.02098736599994775</v>
       </c>
       <c r="C27" t="n">
         <v>0.01836753441836936</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.002580257492077621</v>
+        <v>-0.002619831581578386</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01732616445943615</v>
+        <v>0.01735872591437003</v>
       </c>
       <c r="C29" t="n">
         <v>0.01833525898205588</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001009094522619731</v>
+        <v>0.0009765330676858551</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0202556455094002</v>
+        <v>0.02029300797364126</v>
       </c>
       <c r="C31" t="n">
         <v>0.01816715560429483</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.002088489905105372</v>
+        <v>-0.002125852369346426</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02123749840038712</v>
+        <v>0.0212773640315416</v>
       </c>
       <c r="C32" t="n">
         <v>0.01811088521478297</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.003126613185604154</v>
+        <v>-0.003166478816758637</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02431600874699222</v>
+        <v>0.02436157320358981</v>
       </c>
       <c r="C33" t="n">
         <v>0.01802093844126488</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.006295070305727339</v>
+        <v>-0.006340634762324927</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01774311031836522</v>
+        <v>0.01777636184102793</v>
       </c>
       <c r="C34" t="n">
         <v>0.01795819610565135</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0002150857872861359</v>
+        <v>0.0001818342646234296</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01806851302892963</v>
+        <v>0.01810223155592276</v>
       </c>
       <c r="C35" t="n">
         <v>0.01793057395902963</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.0001379390698999956</v>
+        <v>-0.0001716575968931273</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01338408501967013</v>
+        <v>0.01340891936114673</v>
       </c>
       <c r="C36" t="n">
         <v>0.01780640667876218</v>
       </c>
       <c r="D36" t="n">
-        <v>0.004422321659092048</v>
+        <v>0.004397487317615452</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01785492006915519</v>
+        <v>0.01788829467541409</v>
       </c>
       <c r="C38" t="n">
         <v>0.01765210819241863</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.000202811876736559</v>
+        <v>-0.0002361864829954589</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01795063265979489</v>
+        <v>0.01798432577046067</v>
       </c>
       <c r="C41" t="n">
         <v>0.01732081877799035</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0006298138818045355</v>
+        <v>-0.000663506992470312</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01791753801738944</v>
+        <v>0.01795097643605898</v>
       </c>
       <c r="C42" t="n">
         <v>0.01711433528794739</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0008032027294420443</v>
+        <v>-0.0008366411481115915</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7143,17 +7143,17 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01774658573341423</v>
+        <v>0.01687027132046429</v>
       </c>
       <c r="C43" t="n">
         <v>0.01709589953958265</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0006506861938315837</v>
+        <v>0.0002256282191183644</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -7206,17 +7206,17 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01715677824665207</v>
+        <v>0.01622350556965384</v>
       </c>
       <c r="C46" t="n">
         <v>0.0166666580813108</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.0004901201653412755</v>
+        <v>0.0004431525116569586</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02698693374871794</v>
+        <v>0.02703790218692917</v>
       </c>
       <c r="C48" t="n">
         <v>0.01617373651785855</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.01081319723085939</v>
+        <v>-0.01086416566907062</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7290,17 +7290,17 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01602193762991063</v>
+        <v>0.01605188600592307</v>
       </c>
       <c r="C50" t="n">
         <v>0.01603473961222432</v>
       </c>
       <c r="D50" t="n">
-        <v>1.280198231369198e-05</v>
+        <v>-1.714639369874635e-05</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0146642418791158</v>
+        <v>0.01469175998592212</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0146642418791158</v>
+        <v>-0.01469175998592212</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01921253155534196</v>
+        <v>0.01924855424785372</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01921253155534196</v>
+        <v>-0.01924855424785372</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01823479603399672</v>
+        <v>0.01826903320583866</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01823479603399672</v>
+        <v>-0.01826903320583866</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02723453910710454</v>
+        <v>0.02728627119952528</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02723453910710454</v>
+        <v>-0.02728627119952528</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01842343699220252</v>
+        <v>0.01845808279906112</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01842343699220252</v>
+        <v>-0.01845808279906112</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01620362087624085</v>
+        <v>0.01623396221554662</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01620362087624085</v>
+        <v>-0.01623396221554662</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01347964065195379</v>
+        <v>0.01350484297451737</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01347964065195379</v>
+        <v>-0.01350484297451737</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0156338853636338</v>
+        <v>0.01566341232675404</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.0156338853636338</v>
+        <v>-0.01566341232675404</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01724958920717777</v>
+        <v>0.01728122348281122</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01724958920717777</v>
+        <v>-0.01728122348281122</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01602282659317979</v>
+        <v>0.01605296596377884</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01602282659317979</v>
+        <v>-0.01605296596377884</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01774795622975014</v>
+        <v>0.01778156557572838</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01774795622975014</v>
+        <v>-0.01778156557572838</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01671260306167323</v>
+        <v>0.01674400387165596</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01671260306167323</v>
+        <v>-0.01674400387165596</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01612454156745502</v>
+        <v>0.01615474272214994</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01612454156745502</v>
+        <v>-0.01615474272214994</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01582313009936242</v>
+        <v>0.01585265939511816</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01582313009936242</v>
+        <v>-0.01585265939511816</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
